--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\cmms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCC3180-E1F7-4BDE-9AAF-6B273DFE2CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD530B-17C5-4CC7-851A-9074C81B837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="146">
   <si>
     <t>card</t>
   </si>
@@ -8357,7 +8357,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8423,8 +8423,12 @@
       <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD530B-17C5-4CC7-851A-9074C81B837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E4315-406A-414D-AC86-D65B94492623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="151">
   <si>
     <t>card</t>
   </si>
@@ -504,6 +504,21 @@
   </si>
   <si>
     <t>23\10\2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Servised by</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمد عبدالله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم تشغيل الكرد </t>
+  </si>
+  <si>
+    <t>1\2\2024</t>
   </si>
 </sst>
 </file>
@@ -532,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -555,17 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,7 +580,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6463,10 +6467,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6481,10 +6485,11 @@
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6521,9 +6526,14 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6541,9 +6551,17 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6572,8 +6590,10 @@
       <c r="L3" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6592,8 +6612,10 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -6622,8 +6644,10 @@
       <c r="L5" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -6650,8 +6674,10 @@
       <c r="L6" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -6678,8 +6704,10 @@
       <c r="L7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -6704,8 +6732,10 @@
       <c r="L8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -6724,8 +6754,10 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -6744,8 +6776,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -6764,8 +6798,10 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -6784,6 +6820,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8356,7 +8394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07705AAC-0EB5-4ED1-B658-B16CA1C68037}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E4315-406A-414D-AC86-D65B94492623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFF5B5-81E5-445C-93C3-3CA713BC0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6470,7 +6470,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,7 +6543,9 @@
       <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFF5B5-81E5-445C-93C3-3CA713BC0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEC86B-811A-44B8-B08F-2D6E21C80172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="152">
   <si>
     <t>card</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>1\2\2024</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -570,17 +573,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6469,7 +6486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6832,10 +6849,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6853,7 +6870,7 @@
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6890,8 +6907,11 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -6911,7 +6931,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6939,7 +6959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6967,7 +6987,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6987,7 +7007,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7013,7 +7033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -7041,7 +7061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -7069,7 +7089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -7089,7 +7109,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -7109,7 +7129,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -7129,7 +7149,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEC86B-811A-44B8-B08F-2D6E21C80172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C7C6C-9E46-49B3-A24B-B26B6A647570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="153">
   <si>
     <t>card</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>Correction</t>
   </si>
 </sst>
 </file>
@@ -6849,10 +6852,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6870,7 +6873,7 @@
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6910,8 +6913,11 @@
       <c r="M1" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -6931,7 +6937,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6959,7 +6965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7007,7 +7013,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -7061,7 +7067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -7109,7 +7115,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -7129,7 +7135,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -7149,7 +7155,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C7C6C-9E46-49B3-A24B-B26B6A647570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25A1FF7-F138-418C-96DF-CB74F641B4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6855,7 +6855,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,7 +6927,9 @@
       <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25A1FF7-F138-418C-96DF-CB74F641B4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F7301-3EC5-4175-9947-415DEA03A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6855,7 +6855,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,7 +7005,9 @@
       <c r="C5" s="2">
         <v>550</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
